--- a/techniqo/data_new_ticker/VRLLOG.xlsx
+++ b/techniqo/data_new_ticker/VRLLOG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1332"/>
+  <dimension ref="A1:G1334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47006,6 +47006,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1333" t="n">
+        <v>161.15</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>165</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>161.15</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>135819</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1334" t="n">
+        <v>162</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>169.1</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>162</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>221270</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/VRLLOG.xlsx
+++ b/techniqo/data_new_ticker/VRLLOG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1334"/>
+  <dimension ref="A1:G1336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47056,6 +47056,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1335" t="n">
+        <v>166.95</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>169.3</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>160.45</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>168.3</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>207459</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1336" t="n">
+        <v>169</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>169.15</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>165</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>166.75</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>142931</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
